--- a/Carpeta de Estudio/Historial de Repositorios.xlsx
+++ b/Carpeta de Estudio/Historial de Repositorios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Escritorio\Proyectos Para estudio MIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Documentos\GitHub\MIC-Evolucion_patrones_de_diseno\Carpeta de Estudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8D55B87-561E-4CC9-BAF1-CF33DFD0A23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC567F12-8A91-4BB6-8246-BFA0FCAC7F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="15375" windowHeight="7875" xr2:uid="{EE91BF2F-F0DA-4949-BD11-E6893A9471D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EE91BF2F-F0DA-4949-BD11-E6893A9471D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Usuario</t>
   </si>
@@ -72,6 +72,108 @@
   </si>
   <si>
     <t>Desing-Patterns2</t>
+  </si>
+  <si>
+    <t>ItsDiegoTBG</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>CodingStandards</t>
+  </si>
+  <si>
+    <t>WK2-IS2</t>
+  </si>
+  <si>
+    <t>Kevin-QQ-82</t>
+  </si>
+  <si>
+    <t>E04</t>
+  </si>
+  <si>
+    <t>ProyectoEstructurasDeDatos</t>
+  </si>
+  <si>
+    <t>Dashboard2</t>
+  </si>
+  <si>
+    <t>warayed</t>
+  </si>
+  <si>
+    <t>E05</t>
+  </si>
+  <si>
+    <t>ProyectoEDD1</t>
+  </si>
+  <si>
+    <t>Heart-Attack-Prediction-Interface</t>
+  </si>
+  <si>
+    <t>Proyecto2</t>
+  </si>
+  <si>
+    <t>LuisAntonioQuezadaAristega</t>
+  </si>
+  <si>
+    <t>E06</t>
+  </si>
+  <si>
+    <t>hybrid</t>
+  </si>
+  <si>
+    <t>jcvivas</t>
+  </si>
+  <si>
+    <t>E07</t>
+  </si>
+  <si>
+    <t>EDD1_PROY1P_LUNA_VIVAS_TENESAC</t>
+  </si>
+  <si>
+    <t>Java-OOP-Shop</t>
+  </si>
+  <si>
+    <t>anarjumb</t>
+  </si>
+  <si>
+    <t>E08</t>
+  </si>
+  <si>
+    <t>Proyecto1P</t>
+  </si>
+  <si>
+    <t>TallerRefactoring</t>
+  </si>
+  <si>
+    <t>noeliapasaca</t>
+  </si>
+  <si>
+    <t>E09</t>
+  </si>
+  <si>
+    <t>code-inspection</t>
+  </si>
+  <si>
+    <t>RECIPES</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>RebertoPatino1</t>
+  </si>
+  <si>
+    <t>ProyectoMatematicasDiscretas</t>
+  </si>
+  <si>
+    <t>Pet-Contest-Management-System</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>LeoParra03</t>
   </si>
 </sst>
 </file>
@@ -462,17 +564,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5EA97E-D124-4C52-BAED-29F745ABDAB8}">
-  <dimension ref="C4:F6"/>
+  <dimension ref="C4:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="36.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
@@ -517,13 +620,141 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" display="https://github.com/CristhianSantacruz/ApiBuyerwithComboFruits" xr:uid="{55A786D9-632D-42C7-81EE-7593B7B59808}"/>
     <hyperlink ref="E6" r:id="rId2" display="https://github.com/luisenjs/EDD2P" xr:uid="{255776F6-CDC7-4E11-88AD-44F6E13161BC}"/>
     <hyperlink ref="F6" r:id="rId3" display="https://github.com/luisenjs/Desing-Patterns2" xr:uid="{FF3416F7-2310-407C-BA3C-8E43E5BA5DC6}"/>
+    <hyperlink ref="E8" r:id="rId4" display="https://github.com/Kevin-QQ-82/ProyectoEstructurasDeDatos" xr:uid="{73F6611A-1D06-4817-85B9-296BFE2AA48A}"/>
+    <hyperlink ref="F8" r:id="rId5" display="https://github.com/Kevin-QQ-82/Dashboard2" xr:uid="{AFEF15A8-4BBC-4AFE-8090-90CDCE1D8371}"/>
+    <hyperlink ref="E9" r:id="rId6" display="https://github.com/wayared/ProyectoEDD1" xr:uid="{25AFA3B1-6C12-42E9-99E7-EE96FC5A3D56}"/>
+    <hyperlink ref="F9" r:id="rId7" display="https://github.com/wayared/Heart-Attack-Prediction-Interface" xr:uid="{FA626E61-1B1B-4937-91B7-4935524CEA9A}"/>
+    <hyperlink ref="E11" r:id="rId8" display="https://github.com/jcvivas/EDD1_PROY1P_LUNA_VIVAS_TENESAC" xr:uid="{4B0FD24B-33FE-4E33-BE21-35076652173B}"/>
+    <hyperlink ref="F11" r:id="rId9" display="https://github.com/jcvivas/Java-OOP-Shop" xr:uid="{6B99E77D-D480-4453-8917-FD8A463EFA78}"/>
+    <hyperlink ref="E12" r:id="rId10" display="https://github.com/anarjumb/Proyecto1P" xr:uid="{456E6A08-6B2F-4934-8C9A-C245F973562E}"/>
+    <hyperlink ref="E14" r:id="rId11" display="https://github.com/RobertoPatino1/ProyectoMatematicasDiscretas" xr:uid="{A66EB3B4-04AF-480F-BE82-E5B96EF2B38B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Carpeta de Estudio/Historial de Repositorios.xlsx
+++ b/Carpeta de Estudio/Historial de Repositorios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Documentos\GitHub\MIC-Evolucion_patrones_de_diseno\Carpeta de Estudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC567F12-8A91-4BB6-8246-BFA0FCAC7F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6839C7DF-6688-4560-884B-E94CD76CF9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EE91BF2F-F0DA-4949-BD11-E6893A9471D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Usuario</t>
   </si>
@@ -62,9 +62,6 @@
     <t>E01</t>
   </si>
   <si>
-    <t>LuisJs</t>
-  </si>
-  <si>
     <t>E02</t>
   </si>
   <si>
@@ -174,6 +171,99 @@
   </si>
   <si>
     <t>LeoParra03</t>
+  </si>
+  <si>
+    <t>ConcesionariaDeAutos</t>
+  </si>
+  <si>
+    <t>jekins</t>
+  </si>
+  <si>
+    <t>amadoran</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>Calculadora</t>
+  </si>
+  <si>
+    <t>kgjara</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>EmojiBuilder</t>
+  </si>
+  <si>
+    <t>tresEnRaya</t>
+  </si>
+  <si>
+    <t>Luisenjs</t>
+  </si>
+  <si>
+    <t>julioguerrero131</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>pagina_web-food_store-html-css-js</t>
+  </si>
+  <si>
+    <t>MichaelJimenezC</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>algo</t>
+  </si>
+  <si>
+    <t>leoancab</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>welleats</t>
+  </si>
+  <si>
+    <t>Botsongs</t>
+  </si>
+  <si>
+    <t>Nasdj21</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>Proyecto_EDD </t>
+  </si>
+  <si>
+    <t>ProyectoPooBacan</t>
+  </si>
+  <si>
+    <t>RecorridoHeap</t>
+  </si>
+  <si>
+    <t>PokeAPI_DAWM</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>DavidlunaT</t>
+  </si>
+  <si>
+    <t>G3_Estructura-de-datos1_Luna_Jimenez_Yagual</t>
+  </si>
+  <si>
+    <t>EDD_2</t>
   </si>
 </sst>
 </file>
@@ -225,10 +315,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -564,17 +657,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5EA97E-D124-4C52-BAED-29F745ABDAB8}">
-  <dimension ref="C4:F15"/>
+  <dimension ref="C4:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -608,136 +701,240 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" t="s">
         <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" t="s">
         <v>42</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s">
-        <v>44</v>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -753,8 +950,17 @@
     <hyperlink ref="F11" r:id="rId9" display="https://github.com/jcvivas/Java-OOP-Shop" xr:uid="{6B99E77D-D480-4453-8917-FD8A463EFA78}"/>
     <hyperlink ref="E12" r:id="rId10" display="https://github.com/anarjumb/Proyecto1P" xr:uid="{456E6A08-6B2F-4934-8C9A-C245F973562E}"/>
     <hyperlink ref="E14" r:id="rId11" display="https://github.com/RobertoPatino1/ProyectoMatematicasDiscretas" xr:uid="{A66EB3B4-04AF-480F-BE82-E5B96EF2B38B}"/>
+    <hyperlink ref="E15" r:id="rId12" display="https://github.com/LeoParra03/ConcesionariaDeAutos" xr:uid="{EB71A70A-5B2E-482B-8E71-CEAAF986DE68}"/>
+    <hyperlink ref="F18" r:id="rId13" display="https://github.com/julioguerrero131/pagina_web-food_store-html-css-js" xr:uid="{10143001-85FA-4F69-A5DA-EE944303774C}"/>
+    <hyperlink ref="E19" r:id="rId14" display="https://github.com/MichaelJimenezC/Tetris" xr:uid="{69D8F13D-7B6B-410E-B99A-FD598AAFD301}"/>
+    <hyperlink ref="E20" r:id="rId15" display="https://github.com/leoancab/welleats" xr:uid="{8E8E1EA7-B656-4CE3-8BF4-43066236C00E}"/>
+    <hyperlink ref="F21" r:id="rId16" display="https://github.com/nasdj21/Proyecto_EDD" xr:uid="{DFB9BB5C-03CA-4453-9ED8-45C5D18C1C7F}"/>
+    <hyperlink ref="E21" r:id="rId17" display="https://github.com/nasdj21/ProyectoPooBacan" xr:uid="{2E089D91-C88F-4B74-8563-A75CF6EFAD68}"/>
+    <hyperlink ref="E16" r:id="rId18" display="https://github.com/amadoran/RecorridoHeap" xr:uid="{C522E359-CFF9-4F8F-8674-5F18EA16CAA8}"/>
+    <hyperlink ref="E18" r:id="rId19" display="https://github.com/julioguerrero131/PokeAPI_DAWM" xr:uid="{5017E2FF-4D5B-4A22-87F4-9CE3935B247F}"/>
+    <hyperlink ref="F22" r:id="rId20" display="https://github.com/DavidlunaT/EDD_2" xr:uid="{3953976A-6CAD-45D3-AE16-FAFC7705883D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId21"/>
 </worksheet>
 </file>
--- a/Carpeta de Estudio/Historial de Repositorios.xlsx
+++ b/Carpeta de Estudio/Historial de Repositorios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Documentos\GitHub\MIC-Evolucion_patrones_de_diseno\Carpeta de Estudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6839C7DF-6688-4560-884B-E94CD76CF9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4247DAFA-4AC7-4B84-A351-50E4A5A2762B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EE91BF2F-F0DA-4949-BD11-E6893A9471D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" xr2:uid="{EE91BF2F-F0DA-4949-BD11-E6893A9471D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
   <si>
     <t>Usuario</t>
   </si>
@@ -264,13 +264,148 @@
   </si>
   <si>
     <t>EDD_2</t>
+  </si>
+  <si>
+    <t>Ariel-Vargas</t>
+  </si>
+  <si>
+    <t>E19</t>
+  </si>
+  <si>
+    <t>Taller01-Snake</t>
+  </si>
+  <si>
+    <t>TicTacToe</t>
+  </si>
+  <si>
+    <t>StevenLino</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrones-de-Dise-o </t>
+  </si>
+  <si>
+    <t>Proyecto2-EstructurasDatos</t>
+  </si>
+  <si>
+    <t>brauliorivas</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>Proyecto-1-Poo</t>
+  </si>
+  <si>
+    <t>Meteor</t>
+  </si>
+  <si>
+    <t>Johrespi</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>ProyectoContactos</t>
+  </si>
+  <si>
+    <t>landing</t>
+  </si>
+  <si>
+    <t>edu-gab</t>
+  </si>
+  <si>
+    <t>E23</t>
+  </si>
+  <si>
+    <t>POO-P05-ProyectoG-08</t>
+  </si>
+  <si>
+    <t>POO_Proyecto</t>
+  </si>
+  <si>
+    <t>Erillope</t>
+  </si>
+  <si>
+    <t>E24</t>
+  </si>
+  <si>
+    <t>Crypto-Exchange-System</t>
+  </si>
+  <si>
+    <t>lua-interpreter</t>
+  </si>
+  <si>
+    <t>bmitegui</t>
+  </si>
+  <si>
+    <t>E25</t>
+  </si>
+  <si>
+    <t>antonella</t>
+  </si>
+  <si>
+    <t>NLindao2004</t>
+  </si>
+  <si>
+    <t>E26</t>
+  </si>
+  <si>
+    <t>POO4_PROY2P_Lindao_Salinas_Zavala</t>
+  </si>
+  <si>
+    <t>Izaako04</t>
+  </si>
+  <si>
+    <t>E27</t>
+  </si>
+  <si>
+    <t>2P-ProyectoPOOG4</t>
+  </si>
+  <si>
+    <t>PROY2_ED</t>
+  </si>
+  <si>
+    <t>carloscabani</t>
+  </si>
+  <si>
+    <t>E28</t>
+  </si>
+  <si>
+    <t>ProyectoEstructuras</t>
+  </si>
+  <si>
+    <t>SistemaUrbanizacion</t>
+  </si>
+  <si>
+    <t>Jlchong3</t>
+  </si>
+  <si>
+    <t>E29</t>
+  </si>
+  <si>
+    <t>ProyectoPOO1</t>
+  </si>
+  <si>
+    <t>OwuenYagual</t>
+  </si>
+  <si>
+    <t>E30</t>
+  </si>
+  <si>
+    <t>POO-P3-G5</t>
+  </si>
+  <si>
+    <t>G3_Proyecto1_EDD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +428,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -302,7 +443,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -310,18 +451,152 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -657,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5EA97E-D124-4C52-BAED-29F745ABDAB8}">
-  <dimension ref="C4:F22"/>
+  <dimension ref="C4:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,269 +947,437 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="C22" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="15" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
